--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F940342-9995-4F8B-9648-ADDA9D421F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBE5AF6-A7D0-4D0A-A7A9-E3E05ECA8652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="4215" windowWidth="13890" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
     <sheet name="TextEX2" sheetId="2" r:id="rId2"/>
-    <sheet name="TextEX3" sheetId="3" r:id="rId3"/>
-    <sheet name="Customer2" sheetId="4" r:id="rId4"/>
-    <sheet name="CustomerReject1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,62 +112,6 @@
   </si>
   <si>
     <t>오, 무슨 얘기야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서오스요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀내놔라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀내놓으라고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안팔아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니가그러고도상인이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오짤낀데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감사합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래그래 자주좀들려라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시는 보지맙시다 저희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 안해 안해 집어치워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 저희도 남는게 없다니까요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마 끄지라 그냥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65CF858-28DA-4B67-AF50-A2010BEF3C42}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -760,228 +701,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01630D74-A3BD-448E-8DB2-46783F003FC0}">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD7361E-782F-4CC9-864F-19149DE85E4B}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0923-4B72-4CB5-94E5-4619DEBA32E5}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade\Assets\Scripts\MG\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade2\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F940342-9995-4F8B-9648-ADDA9D421F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830C35A-2249-4D0A-95A3-5563AB4F4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="4215" windowWidth="13890" windowHeight="11385" firstSheet="2" activeTab="4" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="TextEX3" sheetId="3" r:id="rId3"/>
     <sheet name="Customer2" sheetId="4" r:id="rId4"/>
     <sheet name="CustomerReject1" sheetId="5" r:id="rId5"/>
+    <sheet name="CustomerReject2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +172,14 @@
   </si>
   <si>
     <t>마 끄지라 그냥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거너무비싼데 흥정좀다시할까요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예뭐얼마원하십니꺼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0923-4B72-4CB5-94E5-4619DEBA32E5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -984,4 +993,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEF320B-AE84-4C3F-B43E-2D8C1D71F14B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade2\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4830C35A-2249-4D0A-95A3-5563AB4F4379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FDC9FA-6F79-4ED0-B380-1C50160F157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Customer2" sheetId="4" r:id="rId4"/>
     <sheet name="CustomerReject1" sheetId="5" r:id="rId5"/>
     <sheet name="CustomerReject2" sheetId="6" r:id="rId6"/>
+    <sheet name="아이템이름출력" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +181,14 @@
   </si>
   <si>
     <t>예뭐얼마원하십니꺼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아따 마 선제시 해보라매요 아지매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 이양반아, 아무리 그래도 그렇지 [물건이름] 이거를  [흥정제시가]골드로 후려치는게 말이나되는겨?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEF320B-AE84-4C3F-B43E-2D8C1D71F14B}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,4 +1051,53 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF499146-2078-42CE-9B4B-33F785F2C86B}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade2\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FDC9FA-6F79-4ED0-B380-1C50160F157F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA6207-2EF4-4D0F-9518-26691C556C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
     <sheet name="TextEX2" sheetId="2" r:id="rId2"/>
-    <sheet name="TextEX3" sheetId="3" r:id="rId3"/>
-    <sheet name="Customer2" sheetId="4" r:id="rId4"/>
-    <sheet name="CustomerReject1" sheetId="5" r:id="rId5"/>
-    <sheet name="CustomerReject2" sheetId="6" r:id="rId6"/>
+    <sheet name="무뚝뚝거래전잡담" sheetId="3" r:id="rId3"/>
+    <sheet name="화난작별인사" sheetId="4" r:id="rId4"/>
+    <sheet name="무뚝뚝거래거절" sheetId="5" r:id="rId5"/>
+    <sheet name="유쾌한재흥정" sheetId="6" r:id="rId6"/>
     <sheet name="아이템이름출력" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,75 +120,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어서오스요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀내놔라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌀내놓으라고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안팔아요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>니가그러고도상인이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오짤낀데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>손님</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>감사합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래그래 자주좀들려라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시는 보지맙시다 저희</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 안해 안해 집어치워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니, 저희도 남는게 없다니까요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마 끄지라 그냥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그거너무비싼데 흥정좀다시할까요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예뭐얼마원하십니꺼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아따 마 선제시 해보라매요 아지매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니 이양반아, 아무리 그래도 그렇지 [물건이름] 이거를  [흥정제시가]골드로 후려치는게 말이나되는겨?</t>
+    <t>흠, 그냥… 이것저것 보다가 갈 거야.</t>
+  </si>
+  <si>
+    <t>오, 그래요? 혹시 제가 딱 맞는 거 추천해드릴까요?</t>
+  </si>
+  <si>
+    <t>…뭐, 시간 있으면 보지.</t>
+  </si>
+  <si>
+    <t>흥, 이번엔 별로였어. 나 간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 다음엔 더 잘 맞춰볼게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐, 두고 보지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤헤, 언제든 와주세요! 기다릴게요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격이 안 맞아. 안 해.</t>
+  </si>
+  <si>
+    <t>헉, 진짜요? 완전 좋은데, 조금 더 조정해볼까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐어. 다른 데 갈게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아… 알겠어요! 다음엔 딱 맞게 준비할게요!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">손님 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 이건 좀 비싸다, 아가씨! 좀 깎아줘야겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진짜요? 그럼 어떤 가격이 좋으신데요? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(음…망했다…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 [흥정제시가]골드보다는 잘 쳐줄순 없겠어? 당장 돈이 급해서말이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 오늘 시장 사람들 많아서 정신없죠? 뭘 보러 오셨어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어허, 내가 아무리 세상 물정을 몰라도 [물건이름] 이거를 [흥정제시가]골드에 파는게 아니란 건 알아.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01630D74-A3BD-448E-8DB2-46783F003FC0}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -839,43 +838,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -886,10 +852,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD7361E-782F-4CC9-864F-19149DE85E4B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -907,35 +873,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -946,10 +923,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7B0923-4B72-4CB5-94E5-4619DEBA32E5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,13 +944,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,18 +961,29 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +997,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1030,10 +1018,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,7 +1032,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1043,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF499146-2078-42CE-9B4B-33F785F2C86B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -1076,13 +1064,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1093,6 +1081,17 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade2\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CA6207-2EF4-4D0F-9518-26691C556C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCECE442-1E99-4953-B6F7-90B0AA0E2DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="8370" yWindow="2235" windowWidth="13890" windowHeight="11385" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어허, 내가 아무리 세상 물정을 몰라도 [물건이름] 이거를 [흥정제시가]골드에 파는게 아니란 건 알아.</t>
+    <t>어허, 내가 아무리 세상 물정을 몰라도 [물건이름][목적어] [흥정제시가]골드에 거래하는게 아니란 건 알아.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Assets/Scripts/MG/Data/DialogData.xlsx
+++ b/Assets/Scripts/MG/Data/DialogData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlagh\OneDrive\문서\GitHub\HaveToTrade2\Assets\Scripts\MG\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCECE442-1E99-4953-B6F7-90B0AA0E2DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8C046C-1FBB-4CA5-838A-09B5B642ED3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="2235" windowWidth="13890" windowHeight="11385" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{7E573E84-A36E-4879-9C52-4355E21305E3}"/>
   </bookViews>
   <sheets>
     <sheet name="TextEX" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="무뚝뚝거래거절" sheetId="5" r:id="rId5"/>
     <sheet name="유쾌한재흥정" sheetId="6" r:id="rId6"/>
     <sheet name="아이템이름출력" sheetId="7" r:id="rId7"/>
+    <sheet name="유쾌한거래전인사" sheetId="9" r:id="rId8"/>
+    <sheet name="유쾌한거래후인사" sheetId="8" r:id="rId9"/>
+    <sheet name="아저씨거래전인사" sheetId="10" r:id="rId10"/>
+    <sheet name="아저씨거래후인사" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="50">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,15 +183,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그래도 [흥정제시가]골드보다는 잘 쳐줄순 없겠어? 당장 돈이 급해서말이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>안녕하세요! 오늘 시장 사람들 많아서 정신없죠? 뭘 보러 오셨어요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>어허, 내가 아무리 세상 물정을 몰라도 [물건이름][목적어] [흥정제시가]골드에 거래하는게 아니란 건 알아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오~ 상인아가씨가 오랜만에 왔구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요~ 요즘에 제가 조금 바빠서….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안그래도 마침 사고 팔게 있었는데, 잘됐어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤헷~ 제가 좋은가격에 맞춰드릴게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미레사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘도 좋은거래였어. 가끔씩 오지말고 자주자주 들려줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저야말로 좋은 거래 감사해요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 물건이 많이 있어요~ 둘러보세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음, 그래? 한번 둘러보지. 아, 이물건 대충 얼마쯤 할것같나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크, 젊은 아가씨가 고생이 참 많아, 나 때도…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네~ 손님. 좋은 거래 감사합니다~~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어, 크흠. 그래. 다음에도 또 들려줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 [흥정제시가]골드보다는 잘 쳐줄순 없겠어? 당장 급해서말이야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,6 +723,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4F457A-5250-4594-8189-F342AD0C6EEF}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8924206-61AE-4D69-B844-8DAB6387AFF9}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65CF858-28DA-4B67-AF50-A2010BEF3C42}">
   <dimension ref="A1:C8"/>
@@ -784,7 +945,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -855,7 +1016,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -909,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -926,7 +1087,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -958,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -980,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -997,7 +1158,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -1046,7 +1207,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1231,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1092,7 +1253,127 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12050CB-2241-43EC-A575-1BA7884FCFB5}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0F18A6-9C7B-45FA-A7D1-278EE75DDDD7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
